--- a/natmiOut/OldD7/LR-pairs_lrc2p/Adam10-Epha3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Adam10-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>35.3766200532729</v>
+        <v>35.94400833333334</v>
       </c>
       <c r="H2">
-        <v>35.3766200532729</v>
+        <v>107.832025</v>
       </c>
       <c r="I2">
-        <v>0.3400061334113182</v>
+        <v>0.3258225667258368</v>
       </c>
       <c r="J2">
-        <v>0.3400061334113182</v>
+        <v>0.3258225667258368</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>39.1025534037437</v>
+        <v>0.1220006666666667</v>
       </c>
       <c r="N2">
-        <v>39.1025534037437</v>
+        <v>0.366002</v>
       </c>
       <c r="O2">
-        <v>0.9909120578296227</v>
+        <v>0.003000890193633104</v>
       </c>
       <c r="P2">
-        <v>0.9909120578296227</v>
+        <v>0.003000890193633103</v>
       </c>
       <c r="Q2">
-        <v>1383.316174877054</v>
+        <v>4.385192979338889</v>
       </c>
       <c r="R2">
-        <v>1383.316174877054</v>
+        <v>39.46673681405</v>
       </c>
       <c r="S2">
-        <v>0.3369161773333026</v>
+        <v>0.0009777577453519311</v>
       </c>
       <c r="T2">
-        <v>0.3369161773333026</v>
+        <v>0.0009777577453519311</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>35.3766200532729</v>
+        <v>35.94400833333334</v>
       </c>
       <c r="H3">
-        <v>35.3766200532729</v>
+        <v>107.832025</v>
       </c>
       <c r="I3">
-        <v>0.3400061334113182</v>
+        <v>0.3258225667258368</v>
       </c>
       <c r="J3">
-        <v>0.3400061334113182</v>
+        <v>0.3258225667258368</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.358620869772898</v>
+        <v>40.12734033333333</v>
       </c>
       <c r="N3">
-        <v>0.358620869772898</v>
+        <v>120.382021</v>
       </c>
       <c r="O3">
-        <v>0.009087942170377266</v>
+        <v>0.987025279393649</v>
       </c>
       <c r="P3">
-        <v>0.009087942170377266</v>
+        <v>0.987025279393649</v>
       </c>
       <c r="Q3">
-        <v>12.68679425313007</v>
+        <v>1442.337455335836</v>
       </c>
       <c r="R3">
-        <v>12.68679425313007</v>
+        <v>12981.03709802253</v>
       </c>
       <c r="S3">
-        <v>0.003089956078015638</v>
+        <v>0.3215951099553249</v>
       </c>
       <c r="T3">
-        <v>0.003089956078015638</v>
+        <v>0.3215951099553249</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.0818569259842</v>
+        <v>35.94400833333334</v>
       </c>
       <c r="H4">
-        <v>23.0818569259842</v>
+        <v>107.832025</v>
       </c>
       <c r="I4">
-        <v>0.2218406652059764</v>
+        <v>0.3258225667258368</v>
       </c>
       <c r="J4">
-        <v>0.2218406652059764</v>
+        <v>0.3258225667258368</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.1025534037437</v>
+        <v>0.4054843333333333</v>
       </c>
       <c r="N4">
-        <v>39.1025534037437</v>
+        <v>1.216453</v>
       </c>
       <c r="O4">
-        <v>0.9909120578296227</v>
+        <v>0.009973830412717882</v>
       </c>
       <c r="P4">
-        <v>0.9909120578296227</v>
+        <v>0.00997383041271788</v>
       </c>
       <c r="Q4">
-        <v>902.5595431058686</v>
+        <v>14.57473225636945</v>
       </c>
       <c r="R4">
-        <v>902.5595431058686</v>
+        <v>131.172590307325</v>
       </c>
       <c r="S4">
-        <v>0.2198245900695464</v>
+        <v>0.003249699025159952</v>
       </c>
       <c r="T4">
-        <v>0.2198245900695464</v>
+        <v>0.003249699025159952</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.0818569259842</v>
+        <v>23.289271</v>
       </c>
       <c r="H5">
-        <v>23.0818569259842</v>
+        <v>69.867813</v>
       </c>
       <c r="I5">
-        <v>0.2218406652059764</v>
+        <v>0.2111108472940278</v>
       </c>
       <c r="J5">
-        <v>0.2218406652059764</v>
+        <v>0.2111108472940278</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.358620869772898</v>
+        <v>0.1220006666666667</v>
       </c>
       <c r="N5">
-        <v>0.358620869772898</v>
+        <v>0.366002</v>
       </c>
       <c r="O5">
-        <v>0.009087942170377266</v>
+        <v>0.003000890193633104</v>
       </c>
       <c r="P5">
-        <v>0.009087942170377266</v>
+        <v>0.003000890193633103</v>
       </c>
       <c r="Q5">
-        <v>8.277635606770044</v>
+        <v>2.841306588180666</v>
       </c>
       <c r="R5">
-        <v>8.277635606770044</v>
+        <v>25.571759293626</v>
       </c>
       <c r="S5">
-        <v>0.002016075136429938</v>
+        <v>0.0006335204714142236</v>
       </c>
       <c r="T5">
-        <v>0.002016075136429938</v>
+        <v>0.0006335204714142236</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.2378590770767</v>
+        <v>23.289271</v>
       </c>
       <c r="H6">
-        <v>31.2378590770767</v>
+        <v>69.867813</v>
       </c>
       <c r="I6">
-        <v>0.3002283334261573</v>
+        <v>0.2111108472940278</v>
       </c>
       <c r="J6">
-        <v>0.3002283334261573</v>
+        <v>0.2111108472940278</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>39.1025534037437</v>
+        <v>40.12734033333333</v>
       </c>
       <c r="N6">
-        <v>39.1025534037437</v>
+        <v>120.382021</v>
       </c>
       <c r="O6">
-        <v>0.9909120578296227</v>
+        <v>0.987025279393649</v>
       </c>
       <c r="P6">
-        <v>0.9909120578296227</v>
+        <v>0.987025279393649</v>
       </c>
       <c r="Q6">
-        <v>1221.480052780011</v>
+        <v>934.5365035322302</v>
       </c>
       <c r="R6">
-        <v>1221.480052780011</v>
+        <v>8410.828531790072</v>
       </c>
       <c r="S6">
-        <v>0.2974998756940716</v>
+        <v>0.2083717430334177</v>
       </c>
       <c r="T6">
-        <v>0.2974998756940716</v>
+        <v>0.2083717430334178</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.2378590770767</v>
+        <v>23.289271</v>
       </c>
       <c r="H7">
-        <v>31.2378590770767</v>
+        <v>69.867813</v>
       </c>
       <c r="I7">
-        <v>0.3002283334261573</v>
+        <v>0.2111108472940278</v>
       </c>
       <c r="J7">
-        <v>0.3002283334261573</v>
+        <v>0.2111108472940278</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.358620869772898</v>
+        <v>0.4054843333333333</v>
       </c>
       <c r="N7">
-        <v>0.358620869772898</v>
+        <v>1.216453</v>
       </c>
       <c r="O7">
-        <v>0.009087942170377266</v>
+        <v>0.009973830412717882</v>
       </c>
       <c r="P7">
-        <v>0.009087942170377266</v>
+        <v>0.00997383041271788</v>
       </c>
       <c r="Q7">
-        <v>11.20254819206446</v>
+        <v>9.443434525254332</v>
       </c>
       <c r="R7">
-        <v>11.20254819206446</v>
+        <v>84.99091072728899</v>
       </c>
       <c r="S7">
-        <v>0.002728457732085661</v>
+        <v>0.002105583789195815</v>
       </c>
       <c r="T7">
-        <v>0.002728457732085661</v>
+        <v>0.002105583789195814</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.3506695030526</v>
+        <v>35.591128</v>
       </c>
       <c r="H8">
-        <v>14.3506695030526</v>
+        <v>106.773384</v>
       </c>
       <c r="I8">
-        <v>0.1379248679565482</v>
+        <v>0.3226238033912781</v>
       </c>
       <c r="J8">
-        <v>0.1379248679565482</v>
+        <v>0.3226238033912782</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>39.1025534037437</v>
+        <v>0.1220006666666667</v>
       </c>
       <c r="N8">
-        <v>39.1025534037437</v>
+        <v>0.366002</v>
       </c>
       <c r="O8">
-        <v>0.9909120578296227</v>
+        <v>0.003000890193633104</v>
       </c>
       <c r="P8">
-        <v>0.9909120578296227</v>
+        <v>0.003000890193633103</v>
       </c>
       <c r="Q8">
-        <v>561.1478206225903</v>
+        <v>4.342141343418666</v>
       </c>
       <c r="R8">
-        <v>561.1478206225903</v>
+        <v>39.07927209076799</v>
       </c>
       <c r="S8">
-        <v>0.1366714147327021</v>
+        <v>0.000968158607829501</v>
       </c>
       <c r="T8">
-        <v>0.1366714147327021</v>
+        <v>0.000968158607829501</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>35.591128</v>
+      </c>
+      <c r="H9">
+        <v>106.773384</v>
+      </c>
+      <c r="I9">
+        <v>0.3226238033912781</v>
+      </c>
+      <c r="J9">
+        <v>0.3226238033912782</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>40.12734033333333</v>
+      </c>
+      <c r="N9">
+        <v>120.382021</v>
+      </c>
+      <c r="O9">
+        <v>0.987025279393649</v>
+      </c>
+      <c r="P9">
+        <v>0.987025279393649</v>
+      </c>
+      <c r="Q9">
+        <v>1428.177306103229</v>
+      </c>
+      <c r="R9">
+        <v>12853.59575492906</v>
+      </c>
+      <c r="S9">
+        <v>0.318437849681318</v>
+      </c>
+      <c r="T9">
+        <v>0.318437849681318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>14.3506695030526</v>
-      </c>
-      <c r="H9">
-        <v>14.3506695030526</v>
-      </c>
-      <c r="I9">
-        <v>0.1379248679565482</v>
-      </c>
-      <c r="J9">
-        <v>0.1379248679565482</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.358620869772898</v>
-      </c>
-      <c r="N9">
-        <v>0.358620869772898</v>
-      </c>
-      <c r="O9">
-        <v>0.009087942170377266</v>
-      </c>
-      <c r="P9">
-        <v>0.009087942170377266</v>
-      </c>
-      <c r="Q9">
-        <v>5.146449579008125</v>
-      </c>
-      <c r="R9">
-        <v>5.146449579008125</v>
-      </c>
-      <c r="S9">
-        <v>0.00125345322384603</v>
-      </c>
-      <c r="T9">
-        <v>0.00125345322384603</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>35.591128</v>
+      </c>
+      <c r="H10">
+        <v>106.773384</v>
+      </c>
+      <c r="I10">
+        <v>0.3226238033912781</v>
+      </c>
+      <c r="J10">
+        <v>0.3226238033912782</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4054843333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.216453</v>
+      </c>
+      <c r="O10">
+        <v>0.009973830412717882</v>
+      </c>
+      <c r="P10">
+        <v>0.00997383041271788</v>
+      </c>
+      <c r="Q10">
+        <v>14.43164480966133</v>
+      </c>
+      <c r="R10">
+        <v>129.884803286952</v>
+      </c>
+      <c r="S10">
+        <v>0.003217795102130644</v>
+      </c>
+      <c r="T10">
+        <v>0.003217795102130644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>15.49333</v>
+      </c>
+      <c r="H11">
+        <v>46.47998999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.1404427825888573</v>
+      </c>
+      <c r="J11">
+        <v>0.1404427825888573</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1220006666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.366002</v>
+      </c>
+      <c r="O11">
+        <v>0.003000890193633104</v>
+      </c>
+      <c r="P11">
+        <v>0.003000890193633103</v>
+      </c>
+      <c r="Q11">
+        <v>1.890196588886666</v>
+      </c>
+      <c r="R11">
+        <v>17.01176929998</v>
+      </c>
+      <c r="S11">
+        <v>0.0004214533690374479</v>
+      </c>
+      <c r="T11">
+        <v>0.0004214533690374479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>15.49333</v>
+      </c>
+      <c r="H12">
+        <v>46.47998999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.1404427825888573</v>
+      </c>
+      <c r="J12">
+        <v>0.1404427825888573</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>40.12734033333333</v>
+      </c>
+      <c r="N12">
+        <v>120.382021</v>
+      </c>
+      <c r="O12">
+        <v>0.987025279393649</v>
+      </c>
+      <c r="P12">
+        <v>0.987025279393649</v>
+      </c>
+      <c r="Q12">
+        <v>621.7061258066432</v>
+      </c>
+      <c r="R12">
+        <v>5595.355132259789</v>
+      </c>
+      <c r="S12">
+        <v>0.1386205767235884</v>
+      </c>
+      <c r="T12">
+        <v>0.1386205767235884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>15.49333</v>
+      </c>
+      <c r="H13">
+        <v>46.47998999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.1404427825888573</v>
+      </c>
+      <c r="J13">
+        <v>0.1404427825888573</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4054843333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.216453</v>
+      </c>
+      <c r="O13">
+        <v>0.009973830412717882</v>
+      </c>
+      <c r="P13">
+        <v>0.00997383041271788</v>
+      </c>
+      <c r="Q13">
+        <v>6.282302586163333</v>
+      </c>
+      <c r="R13">
+        <v>56.54072327546999</v>
+      </c>
+      <c r="S13">
+        <v>0.00140075249623147</v>
+      </c>
+      <c r="T13">
+        <v>0.00140075249623147</v>
       </c>
     </row>
   </sheetData>
